--- a/data/otherclimatedrivers_lookup.xlsx
+++ b/data/otherclimatedrivers_lookup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/lade8828_colorado_edu/Documents/Documents/GitHub/BCCAch7/data_cleaning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/lade8828_colorado_edu/Documents/Documents/GitHub/BCCAch7/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{375ABBDB-2172-CD4B-A68F-09F2D9E2886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63970A9B-986C-0D41-9241-909CCB71F0E5}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{375ABBDB-2172-CD4B-A68F-09F2D9E2886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{647033CF-E38D-8D4F-B434-DFD2DF986135}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="760" windowWidth="24360" windowHeight="16440" xr2:uid="{2621AD7F-AB1A-E74A-BB38-AD63999953F2}"/>
+    <workbookView xWindow="5880" yWindow="760" windowWidth="24360" windowHeight="16440" xr2:uid="{2621AD7F-AB1A-E74A-BB38-AD63999953F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -630,7 +630,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,7 +784,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -795,7 +795,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -806,7 +806,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
